--- a/insert information to supabase/data/Ministerio_comercio_turismo_cultura_Con_Tema.xlsx
+++ b/insert information to supabase/data/Ministerio_comercio_turismo_cultura_Con_Tema.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Dapper\web-scrapping-deepear\insert information to supabase\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CD147-DA54-40C7-85A0-BF4932B7AE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -110,9 +116,6 @@
     <t>Por el cual se modifica parcialmente el Arancel de Aduanas para la importación de la subpartida subpartida 7005.21.11.00, Los demás vidrios sin armar, coloreados en la masa, opacificados, chapados o simplemente desbastados, de espesor inferior o igual a 6 mm, flotado</t>
   </si>
   <si>
-    <t>"Por el cual se hace la inclusión de la subpartidas arancelaria 8443.39.90.00 en la lista de bienes de capital definida en el artículo 1° del Decreto 1446 de 2022"</t>
-  </si>
-  <si>
     <t>Por el cual se modifica parcialmente el Arancel de Aduanas para la importación de  tornillos</t>
   </si>
   <si>
@@ -128,7 +131,7 @@
     <t>Proyecto de decreto que modifica el Decreto 285 de 2020</t>
   </si>
   <si>
-    <t xml:space="preserve"> Proyecto de Decreto por el cual se extiende el plazo establecido en el Decreto 809 del 25 de mayo de 2023. ( Insumos Agropecuarios)</t>
+    <t> Proyecto de Decreto por el cual se extiende el plazo establecido en el Decreto 809 del 25 de mayo de 2023. ( Insumos Agropecuarios)</t>
   </si>
   <si>
     <t>Proyecto de Decreto por el cual se modifican los artículos 1,3 y 4 del Decreto 2025 de 2015</t>
@@ -298,7 +301,7 @@
     <t>Regulación de las Sociedades de Comercialización Internacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Establecer las disposiciones que rigen los Sistemas Especiales de Importación-Exportación </t>
+    <t>Establecer las disposiciones que rigen los Sistemas Especiales de Importación-Exportación </t>
   </si>
   <si>
     <t>Expandir el término de un año establecido en el Decreto 809 del 25 de mayo de 2023 que establece arancel del 0% para las subpartidas relacionadas con insumos agropecuarios</t>
@@ -404,16 +407,19 @@
   </si>
   <si>
     <t>Comercio Exterior</t>
+  </si>
+  <si>
+    <t>Por el cual se hace la inclusión de la subpartidas arancelaria 8443.39.90.00 en la lista de bienes de capital definida en el artículo 1° del Decreto 1446 de 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,13 +483,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,7 +535,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -555,6 +569,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -589,9 +604,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,14 +780,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,24 +836,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -850,33 +871,33 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" t="s">
         <v>125</v>
       </c>
-      <c r="N2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -894,33 +915,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" t="s">
         <v>125</v>
       </c>
-      <c r="N3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -938,33 +959,33 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" t="s">
         <v>125</v>
       </c>
-      <c r="N4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -982,33 +1003,33 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1026,33 +1047,33 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1070,33 +1091,33 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1114,33 +1135,33 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1158,33 +1179,33 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1202,33 +1223,33 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1246,33 +1267,33 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1290,33 +1311,33 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1334,33 +1355,33 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1378,33 +1399,33 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1422,33 +1443,33 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1466,33 +1487,33 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1510,33 +1531,33 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1554,33 +1575,33 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1598,33 +1619,33 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1642,33 +1663,33 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1686,33 +1707,33 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1730,33 +1751,33 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" t="s">
         <v>125</v>
       </c>
-      <c r="N22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1774,33 +1795,33 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1818,33 +1839,33 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1862,33 +1883,33 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1906,33 +1927,33 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1950,33 +1971,33 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1994,33 +2015,33 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2038,33 +2059,33 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -2082,33 +2103,33 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -2126,33 +2147,33 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -2170,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
